--- a/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T12:10:52+00:00</t>
+    <t>2023-06-16T04:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T04:03:18+00:00</t>
+    <t>2023-06-16T04:30:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T04:30:03+00:00</t>
+    <t>2023-06-16T04:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T04:53:43+00:00</t>
+    <t>2023-06-17T04:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
